--- a/src/test/resources/workbook/读取占位符测试.xlsx
+++ b/src/test/resources/workbook/读取占位符测试.xlsx
@@ -56,10 +56,18 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -529,138 +537,141 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -977,19 +988,20 @@
   <dimension ref="B1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4" outlineLevelCol="3"/>
   <cols>
-    <col min="3" max="3" width="13" customWidth="1"/>
+    <col min="2" max="2" width="19.5" customWidth="1"/>
+    <col min="3" max="3" width="18.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:3">
+    <row r="1" ht="44" customHeight="1" spans="2:3">
       <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
